--- a/data/case1/18/P1_3.xlsx
+++ b/data/case1/18/P1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.34711038275420947</v>
+        <v>0.35360442874736009</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999997951378816</v>
+        <v>-0.0099999993021278044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.043379418093330457</v>
+        <v>-0.0089999992899087999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.01199999994060974</v>
+        <v>-0.011999999824686469</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999997943513961</v>
+        <v>-0.0059999992980035444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999997884503387</v>
+        <v>-0.0059999992769519395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999747383868</v>
+        <v>-0.019999999156699033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999747248864</v>
+        <v>-0.019999999154191705</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999997888908752</v>
+        <v>-0.0059999992721477824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999997900206381</v>
+        <v>-0.0059999992720349837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999997946355563</v>
+        <v>-0.0044999992847962744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.00599999979059751</v>
+        <v>-0.0059999992724217854</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999997934108151</v>
+        <v>0.072810387280820343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999777071224</v>
+        <v>-0.01199999922024908</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999997961535101</v>
+        <v>-0.0059999992671206925</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999997983459785</v>
+        <v>-0.025229882244500068</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999998027251422</v>
+        <v>-0.0059999992598962493</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.076496732023293212</v>
+        <v>-0.0089999992338700707</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999997978678081</v>
+        <v>-0.040969755683968323</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999997959733236</v>
+        <v>-0.0089999993036311565</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999997956429212</v>
+        <v>-0.0089999993027145564</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999997954173239</v>
+        <v>-0.0089999993021576685</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.008999999788941615</v>
+        <v>-0.0089999992842164644</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999689235068</v>
+        <v>-0.041999998992732657</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999687466705</v>
+        <v>-0.041999998987352072</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.021531919274789146</v>
+        <v>-0.0059999992750405795</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999997862201226</v>
+        <v>-0.0059999992718879902</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999997816602146</v>
+        <v>-0.005999999257495503</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999761076907</v>
+        <v>-0.011999999197486844</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999736060037</v>
+        <v>-0.019999999124447054</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999748388504</v>
+        <v>-0.014999999159709176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999730448415</v>
+        <v>-0.021554311818968941</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0071103370048861692</v>
+        <v>-0.0059999992348416242</v>
       </c>
     </row>
   </sheetData>
